--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\rizwan\upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF13662-3C7F-4B98-86BA-8597A523447F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595"/>
+    <workbookView xWindow="6090" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Al Razaq" sheetId="6" r:id="rId1"/>
@@ -2761,7 +2767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3138,18 +3144,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="A1004" sqref="A1004:XFD1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="921">
   <si>
     <t>Item ID</t>
   </si>
@@ -2769,6 +2769,15 @@
   </si>
   <si>
     <t>HUAAAAA</t>
+  </si>
+  <si>
+    <t>23Umer</t>
+  </si>
+  <si>
+    <t>C153</t>
+  </si>
+  <si>
+    <t>checking</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3154,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1005"/>
+  <dimension ref="A1:E1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1004" sqref="A1004:XFD1004"/>
@@ -3196,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3">
         <v>875</v>
@@ -3210,7 +3219,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>900</v>
@@ -3350,7 +3359,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>1050</v>
@@ -3462,7 +3471,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
         <v>825</v>
@@ -3686,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
         <v>1950</v>
@@ -3700,7 +3709,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="3">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="3">
         <v>2000</v>
@@ -4134,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3">
         <v>1350</v>
@@ -4162,7 +4171,7 @@
         <v>74</v>
       </c>
       <c r="C72" s="3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D72" s="3">
         <v>1350</v>
@@ -4960,7 +4969,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D129" s="3">
         <v>700</v>
@@ -5618,7 +5627,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D176" s="3">
         <v>800</v>
@@ -7228,7 +7237,7 @@
         <v>279</v>
       </c>
       <c r="C291" s="3">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D291" s="3">
         <v>450</v>
@@ -17228,6 +17237,34 @@
       </c>
       <c r="D1005" s="3">
         <v>9</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="3">
+        <v>2755</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1006" s="3">
+        <v>231</v>
+      </c>
+      <c r="D1006" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C1007" s="3">
+        <v>123</v>
+      </c>
+      <c r="D1007" s="3">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="914">
   <si>
     <t>Item ID</t>
   </si>
@@ -2757,27 +2757,6 @@
   </si>
   <si>
     <t>Floor Matting BRV</t>
-  </si>
-  <si>
-    <t>H044</t>
-  </si>
-  <si>
-    <t>HAHAHA</t>
-  </si>
-  <si>
-    <t>H550</t>
-  </si>
-  <si>
-    <t>HUAAAAA</t>
-  </si>
-  <si>
-    <t>23Umer</t>
-  </si>
-  <si>
-    <t>C153</t>
-  </si>
-  <si>
-    <t>checking</t>
   </si>
 </sst>
 </file>
@@ -3154,10 +3133,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1007"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1004" sqref="A1004:XFD1004"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="12.5703125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3205,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
         <v>875</v>
@@ -3219,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
         <v>900</v>
@@ -3359,7 +3338,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>1050</v>
@@ -3471,7 +3450,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>825</v>
@@ -3695,7 +3674,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
         <v>1950</v>
@@ -3709,7 +3688,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3">
         <v>2000</v>
@@ -4104,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4143,7 +4122,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="3">
         <v>1350</v>
@@ -4171,7 +4150,7 @@
         <v>74</v>
       </c>
       <c r="C72" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="3">
         <v>1350</v>
@@ -4969,7 +4948,7 @@
         <v>130</v>
       </c>
       <c r="C129" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D129" s="3">
         <v>700</v>
@@ -5627,7 +5606,7 @@
         <v>176</v>
       </c>
       <c r="C176" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D176" s="3">
         <v>800</v>
@@ -7237,7 +7216,7 @@
         <v>279</v>
       </c>
       <c r="C291" s="3">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="D291" s="3">
         <v>450</v>
@@ -17209,62 +17188,6 @@
       </c>
       <c r="D1003" s="3">
         <v>1550</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:5">
-      <c r="A1004" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="B1004" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="C1004" s="3">
-        <v>12</v>
-      </c>
-      <c r="D1004" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:5">
-      <c r="A1005" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="B1005" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C1005" s="3">
-        <v>9</v>
-      </c>
-      <c r="D1005" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:5">
-      <c r="A1006" s="3">
-        <v>2755</v>
-      </c>
-      <c r="B1006" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1006" s="3">
-        <v>231</v>
-      </c>
-      <c r="D1006" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:5">
-      <c r="A1007" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="B1007" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="C1007" s="3">
-        <v>123</v>
-      </c>
-      <c r="D1007" s="3">
-        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -3170,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3">
         <v>675</v>
@@ -3184,7 +3184,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3">
         <v>875</v>
@@ -3198,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>900</v>
@@ -3226,7 +3226,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>1250</v>
@@ -3338,7 +3338,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
         <v>1050</v>
@@ -3534,7 +3534,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3">
         <v>1000</v>
@@ -3814,7 +3814,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D48" s="3">
         <v>650</v>
@@ -3870,7 +3870,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="3">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D52" s="3">
         <v>1050</v>
@@ -9162,7 +9162,7 @@
         <v>417</v>
       </c>
       <c r="C430" s="3">
-        <v>15</v>
+        <v>-9</v>
       </c>
       <c r="D430" s="3">
         <v>2000</v>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -3450,7 +3450,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3">
         <v>825</v>

--- a/upload/inventory.xlsx
+++ b/upload/inventory.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="921">
   <si>
     <t>Item ID</t>
   </si>
@@ -2757,6 +2757,27 @@
   </si>
   <si>
     <t>Floor Matting BRV</t>
+  </si>
+  <si>
+    <t>CL886</t>
+  </si>
+  <si>
+    <t>CHAPPAL LARGE</t>
+  </si>
+  <si>
+    <t>ZL890</t>
+  </si>
+  <si>
+    <t>ZAC LIGHTS</t>
+  </si>
+  <si>
+    <t>3asd</t>
+  </si>
+  <si>
+    <t>A610</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -3133,7 +3154,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1003"/>
+  <dimension ref="A1:E1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -3173,7 +3194,7 @@
         <v>52</v>
       </c>
       <c r="D2" s="3">
-        <v>675</v>
+        <v>675.6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17188,6 +17209,62 @@
       </c>
       <c r="D1003" s="3">
         <v>1550</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1004" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1004" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C1005" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1005" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="3">
+        <v>3596</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C1006" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1006" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C1007" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1007" s="3">
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>
